--- a/app_info/company.xlsx
+++ b/app_info/company.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="94">
   <si>
     <t>name</t>
     <phoneticPr fontId="5"/>
@@ -401,6 +401,10 @@
   </si>
   <si>
     <t>https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcRd_jH9742O2isOjdem2CWsVnqtweQtIYXCNN0PVbL6hIP2mlLg</t>
+  </si>
+  <si>
+    <t>野村信託銀行</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -502,8 +506,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="461">
+  <cellStyleXfs count="465">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -985,7 +993,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="461">
+  <cellStyles count="465">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -1216,6 +1224,8 @@
     <cellStyle name="ハイパーリンク" xfId="455" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="457" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="463" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1447,6 +1457,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="456" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="458" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="464" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1777,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2085,7 +2097,7 @@
         <v>45</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
@@ -2104,7 +2116,7 @@
       </c>
       <c r="J12" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>{ search_word: '野村信託銀行 ', tag: 'nomura_tbank' },</v>
+        <v>{ search_word: '野村信託銀行', tag: 'nomura_tbank' },</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3357,7 +3369,7 @@
         <v>.jpg</v>
       </c>
       <c r="H68" s="5" t="str">
-        <f t="shared" ref="H68:H99" si="8">"curl -o "&amp;G68&amp;" "&amp;F68</f>
+        <f t="shared" ref="H68:H75" si="8">"curl -o "&amp;G68&amp;" "&amp;F68</f>
         <v xml:space="preserve">curl -o .jpg </v>
       </c>
       <c r="I68" s="5" t="str">
